--- a/dashboard/deepDAO Commons Enabler 14-4-2019.xlsx
+++ b/dashboard/deepDAO Commons Enabler 14-4-2019.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\deepDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A1FCD-A710-4FA1-86E2-D2CD6C93DED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8784D5-D9F1-410D-BD56-FA068693E687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6C1CEAF-7F76-4E48-9744-1384AC2A1DA2}"/>
-    <workbookView minimized="1" xWindow="2484" yWindow="6288" windowWidth="17448" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{0ED1921F-BB43-4D07-8382-508C831ED62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -670,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -745,6 +744,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2190,6 +2190,363 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bounies paid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="2">
+                  <c:v>pre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>on</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>after</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>m 1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>m 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>m 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>m 4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>m 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>m 6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>m 7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>m 8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>m 9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>m 10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>m 11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>m 12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>m 13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>m 14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>m 15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>m 16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>m 17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>m 18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>m 19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>m 20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>m 21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>m 22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>m 23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>m 24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>m 25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>m 26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>m 27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>m 28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>m 29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>m 30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>m 31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>m 32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>m 33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>m 34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>m 35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>m 36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>m 37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>m 38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>m 39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>m 40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>m 41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>m 42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>m 43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>m 44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>m 45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>m 46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>m 47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AE$2:$AE$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="4" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>40007.392798849454</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>4.6177983660381869</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>16.758880800538464</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>30015.501286875235</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>24.712637493415968</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>40.78662394177195</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>69.837457015706534</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>124.33347571680464</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>230.67307914957547</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>447.00250305324192</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>906.83787240877336</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>1930.453587108851</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>4322.1287079022704</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>10200.781681620261</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>25435.555053687196</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="&quot;€&quot;\ #,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D788-49DB-A6AF-5DE1E2C5E982}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1591475439"/>
+        <c:axId val="1542584543"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2546,350 +2903,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bounies paid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Data!$A$2:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="2">
-                  <c:v>pre</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>on</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>after</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>m 1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>m 2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>m 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>m 4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>m 5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>m 6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>m 7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>m 8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>m 9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>m 10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>m 11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>m 12</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>m 13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>m 14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>m 15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>m 16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>m 17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>m 18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>m 19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>m 20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>m 21</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>m 22</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>m 23</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>m 24</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>m 25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>m 26</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>m 27</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>m 28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>m 29</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>m 30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>m 31</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>m 32</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>m 33</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>m 34</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>m 35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>m 36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>m 37</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>m 38</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>m 39</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>m 40</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>m 41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>m 42</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>m 43</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>m 44</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>m 45</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>m 46</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>m 47</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$AE$2:$AE$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="4" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>40007.392798849454</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>4.6177983660381869</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>16.758880800538464</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>30015.501286875235</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>24.712637493415968</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>40.78662394177195</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>69.837457015706534</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>124.33347571680464</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>230.67307914957547</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>447.00250305324192</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>906.83787240877336</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>1930.453587108851</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>4322.1287079022704</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>10200.781681620261</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>25435.555053687196</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="&quot;€&quot;\ #,##0">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D788-49DB-A6AF-5DE1E2C5E982}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2898,6 +2911,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1591475439"/>
         <c:axId val="1542584543"/>
@@ -16591,16 +16605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>175451</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>87087</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>170328</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16679,16 +16693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209389</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>161364</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>117501</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16718,15 +16732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>182495</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117821</xdr:rowOff>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16756,15 +16770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>182494</xdr:colOff>
+      <xdr:colOff>182495</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>61471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>164567</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12806</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17367,13 +17381,12 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="0.21875" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -17438,7 +17451,7 @@
         <f>IF(ISNUMBER('Investor 1'!L22),'Investor 1'!L22,C6)</f>
         <v>0.5</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="42">
         <v>0.5</v>
       </c>
     </row>
@@ -17544,9 +17557,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19565,9 +19575,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E1" sqref="E1:I1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21546,9 +21553,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:I1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23530,7 +23534,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H1" activeCellId="2" sqref="A1:A1048576 F1:F1048576 H1:H1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
